--- a/docs/Modelo_de_Planilha_com_Quantitativos.xlsx
+++ b/docs/Modelo_de_Planilha_com_Quantitativos.xlsx
@@ -1,32 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2839ED-2498-4E28-A4B9-6E5C58494314}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24000" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
+    <t>ITEM</t>
+  </si>
+  <si>
+    <t>QUANTIDADE</t>
+  </si>
+  <si>
+    <t>Número de Classes Total</t>
+  </si>
+  <si>
+    <t>Número de Classes Anotadas</t>
+  </si>
+  <si>
+    <t>Linhas de Código das Classes Anotadas</t>
+  </si>
+  <si>
+    <t>Quantidade de Métodos Anotados</t>
+  </si>
+  <si>
     <t>Herança e Interface</t>
   </si>
   <si>
@@ -46,30 +53,6 @@
   </si>
   <si>
     <t>ensures</t>
-  </si>
-  <si>
-    <t>\forall</t>
-  </si>
-  <si>
-    <t>\exists</t>
-  </si>
-  <si>
-    <t>behaviour subtyping</t>
-  </si>
-  <si>
-    <t>ITEM</t>
-  </si>
-  <si>
-    <t>QUANTIDADE</t>
-  </si>
-  <si>
-    <t>Número de Classes Anotadas</t>
-  </si>
-  <si>
-    <t>Linhas de Código das Classes Anotadas</t>
-  </si>
-  <si>
-    <t>Quantidade de Métodos Anotados</t>
   </si>
   <si>
     <r>
@@ -77,7 +60,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Courier New"/>
-        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>normal_behaviour</t>
     </r>
@@ -86,7 +69,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> e </t>
@@ -96,13 +79,26 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Courier New"/>
-        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>exceptional_behaviour</t>
     </r>
   </si>
   <si>
+    <t>\forall</t>
+  </si>
+  <si>
+    <t>\exists</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Modelos (</t>
     </r>
     <r>
@@ -110,7 +106,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Courier New"/>
-        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>represents</t>
     </r>
@@ -119,26 +115,32 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
     </r>
   </si>
   <si>
-    <t>Número de Classes Total</t>
+    <t>behaviour subtyping</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -146,32 +148,369 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Courier New"/>
-      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -181,43 +520,335 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -266,7 +897,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -301,7 +932,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -475,135 +1106,163 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52" customWidth="1"/>
+    <col min="2" max="2" width="13.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B10" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B11" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B12" s="4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B13" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B14" s="4">
         <v>0</v>
       </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/Modelo_de_Planilha_com_Quantitativos.xlsx
+++ b/docs/Modelo_de_Planilha_com_Quantitativos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9795"/>
+    <workbookView windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -130,12 +130,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,74 +158,69 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,37 +234,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -287,6 +251,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -302,15 +288,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,31 +311,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,37 +461,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,109 +479,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,36 +516,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,6 +577,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -631,155 +602,170 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -788,11 +774,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1115,7 +1098,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1144,7 +1127,7 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>22</v>
       </c>
     </row>
@@ -1152,7 +1135,7 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>335</v>
       </c>
     </row>
@@ -1160,7 +1143,7 @@
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>92</v>
       </c>
     </row>
@@ -1168,79 +1151,79 @@
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4">
-        <v>2</v>
+      <c r="B7" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1248,7 +1231,7 @@
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1256,7 +1239,7 @@
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>0</v>
       </c>
     </row>
